--- a/Bloque Cuantica-Estadistica/P1B Fotoelectrico/P1B.xlsx
+++ b/Bloque Cuantica-Estadistica/P1B Fotoelectrico/P1B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feyra\Desktop\UNI\T-cnicas-experimentales-II\Bloque Cuantica-Estadistica\P1B Fotoelectrico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B6343E-0440-4ED4-B80E-6F4EC12EAAD7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDC8FBE-353E-45B4-8DAC-8DBA7BC9321B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte 1" sheetId="1" r:id="rId1"/>
@@ -13372,8 +13372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F114"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98:E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13871,11 +13871,11 @@
         <v>13.5</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:C56" si="3">$A$4/$A$6* SIN(B33 * PI()/180)</f>
+        <f t="shared" ref="C33:C42" si="3">$A$4/$A$6* SIN(B33 * PI()/180)</f>
         <v>389.07560642650901</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:D56" si="4">2.99792*10^8 /(C33*10^-9)</f>
+        <f t="shared" ref="D33:D42" si="4">2.99792*10^8 /(C33*10^-9)</f>
         <v>770523762086910.88</v>
       </c>
       <c r="E33">
@@ -14597,8 +14597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556F8399-813B-44D5-9B7B-7CC36300CE37}">
   <dimension ref="B1:R64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3:R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14791,7 +14791,7 @@
         <v>5.3</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K13" si="3">K4+0.01</f>
+        <f t="shared" ref="K5:K12" si="3">K4+0.01</f>
         <v>0.42000000000000004</v>
       </c>
       <c r="L5">
@@ -15269,8 +15269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADBD9F1-5668-4CC2-8E1F-5A4946D09955}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Bloque Cuantica-Estadistica/P1B Fotoelectrico/P1B.xlsx
+++ b/Bloque Cuantica-Estadistica/P1B Fotoelectrico/P1B.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\feyra\Desktop\UNI\T-cnicas-experimentales-II\Bloque Cuantica-Estadistica\P1B Fotoelectrico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDC8FBE-353E-45B4-8DAC-8DBA7BC9321B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F776DEB-4FFA-4904-A5A9-617597BB22D0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parte 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>V</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>I (A)</t>
+  </si>
+  <si>
+    <t>Err Lambd</t>
   </si>
 </sst>
 </file>
@@ -12633,16 +12636,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13370,10 +13373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F114"/>
+  <dimension ref="A2:H114"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98:E114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13384,7 +13387,7 @@
     <col min="4" max="4" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -13400,8 +13403,11 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -13419,8 +13425,20 @@
       <c r="E3" s="2">
         <v>1.5</v>
       </c>
+      <c r="F3">
+        <f>ABS($A$4 * COS(B3) * 0.1)</f>
+        <v>151.24113024169938</v>
+      </c>
+      <c r="G3" s="2">
+        <f>F3/C3</f>
+        <v>0.40339743420942298</v>
+      </c>
+      <c r="H3">
+        <f>0.1/B3</f>
+        <v>7.6923076923076927E-3</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f>1/600*10^6</f>
         <v>1666.6666666666667</v>
@@ -13440,13 +13458,21 @@
       <c r="E4">
         <v>1.39</v>
       </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F27" si="2">ABS($A$4 * COS(B4) * 0.1)</f>
+        <v>99.153443884982011</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G27" si="3">F4/C4</f>
+        <v>0.25484364027769169</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3">
-        <f t="shared" ref="B5:B27" si="2">B4+0.5</f>
+        <f t="shared" ref="B5:B27" si="4">B4+0.5</f>
         <v>14</v>
       </c>
       <c r="C5" s="3">
@@ -13460,13 +13486,21 @@
       <c r="E5">
         <v>1.37</v>
       </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>22.789536367972271</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6521224698944286E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14.5</v>
       </c>
       <c r="C6" s="3">
@@ -13480,10 +13514,18 @@
       <c r="E6">
         <v>1.28</v>
       </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>59.154044464784171</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="3"/>
+        <v>0.14175423797482326</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C7" s="3">
@@ -13497,10 +13539,18 @@
       <c r="E7">
         <v>1.22</v>
       </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>126.61465214313689</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29352086997998994</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>15.5</v>
       </c>
       <c r="C8" s="3">
@@ -13514,10 +13564,18 @@
       <c r="E8">
         <v>1.18</v>
       </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>163.07557713648072</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="3"/>
+        <v>0.36613508777360571</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C9" s="3">
@@ -13531,10 +13589,18 @@
       <c r="E9">
         <v>1.0900000000000001</v>
       </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>159.60991338723079</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>0.34743457666862576</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>16.5</v>
       </c>
       <c r="C10" s="3">
@@ -13548,10 +13614,18 @@
       <c r="E10">
         <v>1.08</v>
       </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>117.06617625045226</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24730954527648535</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="C11" s="3">
@@ -13565,10 +13639,18 @@
       <c r="E11">
         <v>1.02</v>
       </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>45.860556341932828</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="3"/>
+        <v>9.4114216118328237E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
       <c r="C12" s="3">
@@ -13582,10 +13664,18 @@
       <c r="E12">
         <v>0.97</v>
       </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>36.573327201909891</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="3"/>
+        <v>7.2974968747930982E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C13" s="3">
@@ -13599,10 +13689,18 @@
       <c r="E13">
         <v>0.93</v>
       </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>110.0527847073467</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="3"/>
+        <v>0.21368297545567397</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>18.5</v>
       </c>
       <c r="C14" s="3">
@@ -13616,10 +13714,18 @@
       <c r="E14">
         <v>0.91</v>
       </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>156.58748229137601</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="3"/>
+        <v>0.29609552673844036</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C15" s="3">
@@ -13633,13 +13739,21 @@
       <c r="E15">
         <v>0.92</v>
       </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>164.78410303111156</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>0.30368591173642523</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>19.5</v>
       </c>
       <c r="C16" s="3">
@@ -13653,11 +13767,19 @@
       <c r="E16">
         <v>0.94</v>
       </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>132.63582830232403</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23840581695675125</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C17" s="3">
@@ -13671,11 +13793,19 @@
       <c r="E17">
         <v>1.1000000000000001</v>
       </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>68.013676968898665</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>0.11931521279576204</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>20.5</v>
       </c>
       <c r="C18" s="3">
@@ -13686,11 +13816,19 @@
         <f t="shared" si="1"/>
         <v>513624810970877.56</v>
       </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>13.260594546423347</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>2.2718986388122902E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C19" s="3">
@@ -13701,10 +13839,18 @@
         <f t="shared" si="1"/>
         <v>501928814304479.19</v>
       </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>91.288210037378064</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.15283991241940889</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21.5</v>
       </c>
       <c r="C20" s="3">
@@ -13715,13 +13861,21 @@
         <f t="shared" si="1"/>
         <v>490790171721068.19</v>
       </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>146.96528792355406</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="3"/>
+        <v>0.24059721038932769</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C21" s="3">
@@ -13733,12 +13887,17 @@
         <v>480170939757835.81</v>
       </c>
       <c r="F21">
-        <v>0.01</v>
+        <f t="shared" si="2"/>
+        <v>166.66013773243955</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="3"/>
+        <v>0.26693625899008594</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B22" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
       <c r="C22" s="3">
@@ -13749,10 +13908,18 @@
         <f t="shared" si="1"/>
         <v>470036549239462.38</v>
       </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>145.55077334891928</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="3"/>
+        <v>0.22820549996017617</v>
+      </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B23" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="C23" s="3">
@@ -13763,10 +13930,18 @@
         <f t="shared" si="1"/>
         <v>460355438522318.5</v>
       </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>88.805503388899595</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="3"/>
+        <v>0.1363682034737155</v>
+      </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>23.5</v>
       </c>
       <c r="C24" s="3">
@@ -13777,10 +13952,18 @@
         <f t="shared" si="1"/>
         <v>451098733558977.44</v>
       </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>10.317548999070091</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="3"/>
+        <v>1.5524874869620318E-2</v>
+      </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B25" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C25" s="3">
@@ -13791,10 +13974,18 @@
         <f t="shared" si="1"/>
         <v>442239967955083.25</v>
       </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>70.696501222832836</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="3"/>
+        <v>0.10428836805292369</v>
+      </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24.5</v>
       </c>
       <c r="C26" s="3">
@@ -13805,10 +13996,18 @@
         <f t="shared" si="1"/>
         <v>433754837305386.19</v>
       </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>134.4015823187091</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="3"/>
+        <v>0.19445928000826621</v>
+      </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="C27" s="3">
@@ -13819,13 +14018,21 @@
         <f t="shared" si="1"/>
         <v>425620983009872.31</v>
       </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>165.20046864391227</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="3"/>
+        <v>0.23453856626565595</v>
+      </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -13842,7 +14049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -13871,11 +14078,11 @@
         <v>13.5</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:C42" si="3">$A$4/$A$6* SIN(B33 * PI()/180)</f>
+        <f t="shared" ref="C33:C42" si="5">$A$4/$A$6* SIN(B33 * PI()/180)</f>
         <v>389.07560642650901</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ref="D33:D42" si="4">2.99792*10^8 /(C33*10^-9)</f>
+        <f t="shared" ref="D33:D42" si="6">2.99792*10^8 /(C33*10^-9)</f>
         <v>770523762086910.88</v>
       </c>
       <c r="E33">
@@ -13887,15 +14094,15 @@
         <v>12</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" ref="B34:B56" si="5">B33+0.5</f>
+        <f t="shared" ref="B34:B56" si="7">B33+0.5</f>
         <v>14</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>403.20315933277959</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>743525920025268.75</v>
       </c>
       <c r="E34">
@@ -13907,15 +14114,15 @@
         <v>1</v>
       </c>
       <c r="B35" s="3">
+        <f t="shared" si="7"/>
+        <v>14.5</v>
+      </c>
+      <c r="C35" s="3">
         <f t="shared" si="5"/>
-        <v>14.5</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="3"/>
         <v>417.3000067574024</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>718408806962431.25</v>
       </c>
       <c r="E35">
@@ -13924,15 +14131,15 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36" s="3">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="C36" s="3">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="3"/>
         <v>431.3650751708679</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>694984404755645.63</v>
       </c>
       <c r="E36">
@@ -13941,15 +14148,15 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37" s="3">
+        <f t="shared" si="7"/>
+        <v>15.5</v>
+      </c>
+      <c r="C37" s="3">
         <f t="shared" si="5"/>
-        <v>15.5</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="3"/>
         <v>445.39729346376146</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>673088957655266.38</v>
       </c>
       <c r="E37">
@@ -13958,15 +14165,15 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B38" s="3">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="C38" s="3">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" si="3"/>
         <v>459.39559302833197</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>652579181319031.75</v>
       </c>
       <c r="E38">
@@ -13975,15 +14182,15 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B39" s="3">
+        <f t="shared" si="7"/>
+        <v>16.5</v>
+      </c>
+      <c r="C39" s="3">
         <f t="shared" si="5"/>
-        <v>16.5</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" si="3"/>
         <v>473.35890783987111</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>633329161096962.63</v>
       </c>
       <c r="E39">
@@ -13992,15 +14199,15 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B40" s="3">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="C40" s="3">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="3"/>
         <v>487.28617453789462</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>615227797678233.13</v>
       </c>
       <c r="E40">
@@ -14009,15 +14216,15 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B41" s="3">
+        <f t="shared" si="7"/>
+        <v>17.5</v>
+      </c>
+      <c r="C41" s="3">
         <f t="shared" si="5"/>
-        <v>17.5</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="3"/>
         <v>501.17633250712191</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>598176690627624.13</v>
       </c>
       <c r="E41">
@@ -14026,15 +14233,15 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B42" s="3">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="C42" s="3">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="3"/>
         <v>515.02832395824566</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>582088374666370.13</v>
       </c>
       <c r="E42">
@@ -14043,7 +14250,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>18.5</v>
       </c>
       <c r="C43" s="3">
@@ -14060,15 +14267,15 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" ref="C44:C56" si="6">$A$4/$A$6* SIN(B44 * PI()/180)</f>
+        <f t="shared" ref="C44:C56" si="8">$A$4/$A$6* SIN(B44 * PI()/180)</f>
         <v>542.61359076192775</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" ref="D44:D56" si="7">2.99792*10^8 /(C44*10^-9)</f>
+        <f t="shared" ref="D44:D56" si="9">2.99792*10^8 /(C44*10^-9)</f>
         <v>552496297741156.31</v>
       </c>
       <c r="E44">
@@ -14077,15 +14284,15 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>19.5</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>556.34476538961815</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>538860107347375.38</v>
       </c>
       <c r="E45">
@@ -14094,15 +14301,15 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>570.03357220944793</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>525919901240215.31</v>
       </c>
       <c r="E46">
@@ -14111,15 +14318,15 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>20.5</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>583.67896876577902</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>513624810970877.56</v>
       </c>
       <c r="E47">
@@ -14131,15 +14338,15 @@
         <v>11</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>597.2799159088338</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>501928814304479.19</v>
       </c>
       <c r="E48">
@@ -14149,15 +14356,15 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>21.5</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>610.83537787382875</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>490790171721068.19</v>
       </c>
       <c r="E49">
@@ -14167,15 +14374,15 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>624.34432235985344</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>480170939757835.81</v>
       </c>
       <c r="E50">
@@ -14185,15 +14392,15 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>22.5</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>637.80572060848294</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>470036549239462.38</v>
       </c>
       <c r="E51">
@@ -14202,15 +14409,15 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>651.21854748212286</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>460355438522318.5</v>
       </c>
       <c r="E52">
@@ -14219,15 +14426,15 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>23.5</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>664.58178154207701</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>451098733558977.44</v>
       </c>
       <c r="E53">
@@ -14236,15 +14443,15 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>677.8944051263336</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>442239967955083.25</v>
       </c>
       <c r="E54">
@@ -14253,15 +14460,15 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>24.5</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>691.15540442706504</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>433754837305386.19</v>
       </c>
       <c r="E55">
@@ -14270,15 +14477,15 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>704.36376956783238</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>425620983009872.31</v>
       </c>
       <c r="E56">
@@ -14597,7 +14804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556F8399-813B-44D5-9B7B-7CC36300CE37}">
   <dimension ref="B1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q3" sqref="Q3:R13"/>
     </sheetView>
   </sheetViews>
@@ -15269,8 +15476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADBD9F1-5668-4CC2-8E1F-5A4946D09955}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
